--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -816,7 +816,11 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr"/>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -739,7 +739,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr"/>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -662,7 +662,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -850,7 +850,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr"/>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +187,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="A1:C37"/>
@@ -555,6 +566,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -564,6 +580,11 @@
           <t>MAT11</t>
         </is>
       </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>BASDA3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -575,6 +596,7 @@
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -586,6 +608,7 @@
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -597,6 +620,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -608,6 +632,7 @@
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
+      <c r="D6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -619,6 +644,7 @@
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr"/>
+      <c r="D7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -630,6 +656,7 @@
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -641,6 +668,7 @@
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr"/>
+      <c r="D9" s="14" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -652,6 +680,7 @@
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
+      <c r="D10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -667,6 +696,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D11" s="14" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -678,6 +708,7 @@
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -689,6 +720,7 @@
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="14" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -700,6 +732,7 @@
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -711,6 +744,7 @@
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="14" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -722,6 +756,7 @@
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -733,6 +768,7 @@
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -748,6 +784,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D18" s="14" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -759,6 +796,7 @@
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -770,6 +808,7 @@
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -781,6 +820,7 @@
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr"/>
+      <c r="D21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -792,6 +832,7 @@
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="14" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -803,6 +844,7 @@
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr"/>
+      <c r="D23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -814,6 +856,7 @@
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="14" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -829,6 +872,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D25" s="14" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -840,6 +884,7 @@
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr"/>
+      <c r="D26" s="14" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -855,6 +900,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -866,6 +912,7 @@
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr"/>
+      <c r="D28" s="14" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -877,6 +924,7 @@
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr"/>
+      <c r="D29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -888,6 +936,7 @@
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -899,6 +948,7 @@
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="14" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -910,6 +960,7 @@
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -921,6 +972,7 @@
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="14" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -932,6 +984,7 @@
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr"/>
+      <c r="D34" s="14" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -947,6 +1000,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -958,6 +1016,7 @@
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr"/>
+      <c r="D36" s="14" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -969,6 +1028,7 @@
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr"/>
+      <c r="D37" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="A1:C37"/>
@@ -571,6 +571,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="11" t="n"/>
@@ -585,6 +595,16 @@
           <t>BASDA3</t>
         </is>
       </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>BING7</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>PAI11</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="9" t="n">
@@ -597,6 +617,8 @@
       </c>
       <c r="C3" s="9" t="inlineStr"/>
       <c r="D3" s="14" t="inlineStr"/>
+      <c r="E3" s="9" t="inlineStr"/>
+      <c r="F3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -609,6 +631,8 @@
       </c>
       <c r="C4" s="9" t="inlineStr"/>
       <c r="D4" s="14" t="inlineStr"/>
+      <c r="E4" s="9" t="inlineStr"/>
+      <c r="F4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -621,6 +645,8 @@
       </c>
       <c r="C5" s="9" t="inlineStr"/>
       <c r="D5" s="14" t="inlineStr"/>
+      <c r="E5" s="9" t="inlineStr"/>
+      <c r="F5" s="14" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -633,6 +659,8 @@
       </c>
       <c r="C6" s="9" t="inlineStr"/>
       <c r="D6" s="14" t="inlineStr"/>
+      <c r="E6" s="9" t="inlineStr"/>
+      <c r="F6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="9" t="n">
@@ -645,6 +673,8 @@
       </c>
       <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="14" t="inlineStr"/>
+      <c r="E7" s="9" t="inlineStr"/>
+      <c r="F7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -657,6 +687,8 @@
       </c>
       <c r="C8" s="9" t="inlineStr"/>
       <c r="D8" s="14" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr"/>
+      <c r="F8" s="14" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="9" t="n">
@@ -669,6 +701,8 @@
       </c>
       <c r="C9" s="9" t="inlineStr"/>
       <c r="D9" s="14" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr"/>
+      <c r="F9" s="14" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -681,6 +715,8 @@
       </c>
       <c r="C10" s="9" t="inlineStr"/>
       <c r="D10" s="14" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr"/>
+      <c r="F10" s="14" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="9" t="n">
@@ -697,6 +733,8 @@
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr"/>
+      <c r="F11" s="14" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -709,6 +747,8 @@
       </c>
       <c r="C12" s="9" t="inlineStr"/>
       <c r="D12" s="14" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr"/>
+      <c r="F12" s="14" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="9" t="n">
@@ -721,6 +761,8 @@
       </c>
       <c r="C13" s="9" t="inlineStr"/>
       <c r="D13" s="14" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr"/>
+      <c r="F13" s="14" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="9" t="n">
@@ -733,6 +775,8 @@
       </c>
       <c r="C14" s="9" t="inlineStr"/>
       <c r="D14" s="14" t="inlineStr"/>
+      <c r="E14" s="9" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -745,6 +789,8 @@
       </c>
       <c r="C15" s="9" t="inlineStr"/>
       <c r="D15" s="14" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr"/>
+      <c r="F15" s="14" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="9" t="n">
@@ -757,6 +803,8 @@
       </c>
       <c r="C16" s="9" t="inlineStr"/>
       <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="9" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="9" t="n">
@@ -769,6 +817,8 @@
       </c>
       <c r="C17" s="9" t="inlineStr"/>
       <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
@@ -785,6 +835,8 @@
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -797,6 +849,8 @@
       </c>
       <c r="C19" s="9" t="inlineStr"/>
       <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="9" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -809,6 +863,8 @@
       </c>
       <c r="C20" s="9" t="inlineStr"/>
       <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="n">
@@ -821,6 +877,8 @@
       </c>
       <c r="C21" s="9" t="inlineStr"/>
       <c r="D21" s="14" t="inlineStr"/>
+      <c r="E21" s="9" t="inlineStr"/>
+      <c r="F21" s="14" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -833,6 +891,8 @@
       </c>
       <c r="C22" s="9" t="inlineStr"/>
       <c r="D22" s="14" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr"/>
+      <c r="F22" s="14" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -845,6 +905,8 @@
       </c>
       <c r="C23" s="9" t="inlineStr"/>
       <c r="D23" s="14" t="inlineStr"/>
+      <c r="E23" s="9" t="inlineStr"/>
+      <c r="F23" s="14" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="9" t="n">
@@ -857,6 +919,8 @@
       </c>
       <c r="C24" s="9" t="inlineStr"/>
       <c r="D24" s="14" t="inlineStr"/>
+      <c r="E24" s="9" t="inlineStr"/>
+      <c r="F24" s="14" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -872,7 +936,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="14" t="inlineStr"/>
+      <c r="D25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr"/>
+      <c r="F25" s="14" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -885,6 +955,8 @@
       </c>
       <c r="C26" s="9" t="inlineStr"/>
       <c r="D26" s="14" t="inlineStr"/>
+      <c r="E26" s="9" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -901,6 +973,8 @@
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr"/>
+      <c r="E27" s="9" t="inlineStr"/>
+      <c r="F27" s="14" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -913,6 +987,8 @@
       </c>
       <c r="C28" s="9" t="inlineStr"/>
       <c r="D28" s="14" t="inlineStr"/>
+      <c r="E28" s="9" t="inlineStr"/>
+      <c r="F28" s="14" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -925,6 +1001,8 @@
       </c>
       <c r="C29" s="9" t="inlineStr"/>
       <c r="D29" s="14" t="inlineStr"/>
+      <c r="E29" s="9" t="inlineStr"/>
+      <c r="F29" s="14" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -937,6 +1015,8 @@
       </c>
       <c r="C30" s="9" t="inlineStr"/>
       <c r="D30" s="14" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr"/>
+      <c r="F30" s="14" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="9" t="n">
@@ -947,8 +1027,18 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr"/>
-      <c r="D31" s="14" t="inlineStr"/>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr"/>
+      <c r="F31" s="14" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -961,6 +1051,8 @@
       </c>
       <c r="C32" s="9" t="inlineStr"/>
       <c r="D32" s="14" t="inlineStr"/>
+      <c r="E32" s="9" t="inlineStr"/>
+      <c r="F32" s="14" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="9" t="n">
@@ -973,6 +1065,8 @@
       </c>
       <c r="C33" s="9" t="inlineStr"/>
       <c r="D33" s="14" t="inlineStr"/>
+      <c r="E33" s="9" t="inlineStr"/>
+      <c r="F33" s="14" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -985,6 +1079,8 @@
       </c>
       <c r="C34" s="9" t="inlineStr"/>
       <c r="D34" s="14" t="inlineStr"/>
+      <c r="E34" s="9" t="inlineStr"/>
+      <c r="F34" s="14" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -1005,6 +1101,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E35" s="9" t="inlineStr"/>
+      <c r="F35" s="14" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -1017,6 +1115,8 @@
       </c>
       <c r="C36" s="9" t="inlineStr"/>
       <c r="D36" s="14" t="inlineStr"/>
+      <c r="E36" s="9" t="inlineStr"/>
+      <c r="F36" s="14" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">
@@ -1029,6 +1129,8 @@
       </c>
       <c r="C37" s="9" t="inlineStr"/>
       <c r="D37" s="14" t="inlineStr"/>
+      <c r="E37" s="9" t="inlineStr"/>
+      <c r="F37" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -776,7 +776,11 @@
       <c r="C14" s="9" t="inlineStr"/>
       <c r="D14" s="14" t="inlineStr"/>
       <c r="E14" s="9" t="inlineStr"/>
-      <c r="F14" s="14" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="9" t="n">
@@ -836,7 +840,11 @@
       </c>
       <c r="D18" s="14" t="inlineStr"/>
       <c r="E18" s="9" t="inlineStr"/>
-      <c r="F18" s="14" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="9" t="n">
@@ -956,7 +964,11 @@
       <c r="C26" s="9" t="inlineStr"/>
       <c r="D26" s="14" t="inlineStr"/>
       <c r="E26" s="9" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="9" t="n">
@@ -988,7 +1000,11 @@
       <c r="C28" s="9" t="inlineStr"/>
       <c r="D28" s="14" t="inlineStr"/>
       <c r="E28" s="9" t="inlineStr"/>
-      <c r="F28" s="14" t="inlineStr"/>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="9" t="n">
@@ -1002,7 +1018,11 @@
       <c r="C29" s="9" t="inlineStr"/>
       <c r="D29" s="14" t="inlineStr"/>
       <c r="E29" s="9" t="inlineStr"/>
-      <c r="F29" s="14" t="inlineStr"/>
+      <c r="F29" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="9" t="n">
@@ -1038,7 +1058,11 @@
         </is>
       </c>
       <c r="E31" s="9" t="inlineStr"/>
-      <c r="F31" s="14" t="inlineStr"/>
+      <c r="F31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="9" t="n">
@@ -1130,7 +1154,11 @@
       <c r="C37" s="9" t="inlineStr"/>
       <c r="D37" s="14" t="inlineStr"/>
       <c r="E37" s="9" t="inlineStr"/>
-      <c r="F37" s="14" t="inlineStr"/>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -618,7 +618,11 @@
       <c r="C3" s="9" t="inlineStr"/>
       <c r="D3" s="14" t="inlineStr"/>
       <c r="E3" s="9" t="inlineStr"/>
-      <c r="F3" s="14" t="inlineStr"/>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="9" t="n">
@@ -632,7 +636,11 @@
       <c r="C4" s="9" t="inlineStr"/>
       <c r="D4" s="14" t="inlineStr"/>
       <c r="E4" s="9" t="inlineStr"/>
-      <c r="F4" s="14" t="inlineStr"/>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="9" t="n">
@@ -646,7 +654,11 @@
       <c r="C5" s="9" t="inlineStr"/>
       <c r="D5" s="14" t="inlineStr"/>
       <c r="E5" s="9" t="inlineStr"/>
-      <c r="F5" s="14" t="inlineStr"/>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="9" t="n">
@@ -674,7 +686,11 @@
       <c r="C7" s="9" t="inlineStr"/>
       <c r="D7" s="14" t="inlineStr"/>
       <c r="E7" s="9" t="inlineStr"/>
-      <c r="F7" s="14" t="inlineStr"/>
+      <c r="F7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="9" t="n">
@@ -702,7 +718,11 @@
       <c r="C9" s="9" t="inlineStr"/>
       <c r="D9" s="14" t="inlineStr"/>
       <c r="E9" s="9" t="inlineStr"/>
-      <c r="F9" s="14" t="inlineStr"/>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="9" t="n">
@@ -734,7 +754,11 @@
       </c>
       <c r="D11" s="14" t="inlineStr"/>
       <c r="E11" s="9" t="inlineStr"/>
-      <c r="F11" s="14" t="inlineStr"/>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="9" t="n">
@@ -773,7 +797,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="14" t="inlineStr"/>
       <c r="E14" s="9" t="inlineStr"/>
       <c r="F14" s="14" t="inlineStr">
@@ -839,7 +867,11 @@
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr"/>
-      <c r="E18" s="9" t="inlineStr"/>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -858,7 +890,11 @@
       <c r="C19" s="9" t="inlineStr"/>
       <c r="D19" s="14" t="inlineStr"/>
       <c r="E19" s="9" t="inlineStr"/>
-      <c r="F19" s="14" t="inlineStr"/>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="9" t="n">
@@ -886,7 +922,11 @@
       <c r="C21" s="9" t="inlineStr"/>
       <c r="D21" s="14" t="inlineStr"/>
       <c r="E21" s="9" t="inlineStr"/>
-      <c r="F21" s="14" t="inlineStr"/>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="9" t="n">
@@ -900,7 +940,11 @@
       <c r="C22" s="9" t="inlineStr"/>
       <c r="D22" s="14" t="inlineStr"/>
       <c r="E22" s="9" t="inlineStr"/>
-      <c r="F22" s="14" t="inlineStr"/>
+      <c r="F22" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="9" t="n">
@@ -928,7 +972,11 @@
       <c r="C24" s="9" t="inlineStr"/>
       <c r="D24" s="14" t="inlineStr"/>
       <c r="E24" s="9" t="inlineStr"/>
-      <c r="F24" s="14" t="inlineStr"/>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="9" t="n">
@@ -949,8 +997,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="9" t="inlineStr"/>
-      <c r="F25" s="14" t="inlineStr"/>
+      <c r="E25" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="9" t="n">
@@ -986,7 +1042,11 @@
       </c>
       <c r="D27" s="14" t="inlineStr"/>
       <c r="E27" s="9" t="inlineStr"/>
-      <c r="F27" s="14" t="inlineStr"/>
+      <c r="F27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="9" t="n">
@@ -1057,7 +1117,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr"/>
+      <c r="E31" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1090,7 +1154,11 @@
       <c r="C33" s="9" t="inlineStr"/>
       <c r="D33" s="14" t="inlineStr"/>
       <c r="E33" s="9" t="inlineStr"/>
-      <c r="F33" s="14" t="inlineStr"/>
+      <c r="F33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1104,7 +1172,11 @@
       <c r="C34" s="9" t="inlineStr"/>
       <c r="D34" s="14" t="inlineStr"/>
       <c r="E34" s="9" t="inlineStr"/>
-      <c r="F34" s="14" t="inlineStr"/>
+      <c r="F34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">
@@ -1126,7 +1198,11 @@
         </is>
       </c>
       <c r="E35" s="9" t="inlineStr"/>
-      <c r="F35" s="14" t="inlineStr"/>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="9" t="n">
@@ -1140,7 +1216,11 @@
       <c r="C36" s="9" t="inlineStr"/>
       <c r="D36" s="14" t="inlineStr"/>
       <c r="E36" s="9" t="inlineStr"/>
-      <c r="F36" s="14" t="inlineStr"/>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,12 +52,17 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -169,6 +174,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,13 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,701 +551,719 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT11</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>BASDA3</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>BING7</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>PAI11</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="14" t="inlineStr"/>
-      <c r="E3" s="9" t="inlineStr"/>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr"/>
+      <c r="D3" s="15" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="14" t="inlineStr"/>
-      <c r="E4" s="9" t="inlineStr"/>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr"/>
+      <c r="D4" s="15" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="14" t="inlineStr"/>
-      <c r="E5" s="9" t="inlineStr"/>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr"/>
+      <c r="D5" s="15" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="14" t="inlineStr"/>
-      <c r="E6" s="9" t="inlineStr"/>
-      <c r="F6" s="14" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="15" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="15" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
-      <c r="D7" s="14" t="inlineStr"/>
-      <c r="E7" s="9" t="inlineStr"/>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr"/>
-      <c r="D8" s="14" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr"/>
-      <c r="F8" s="14" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="15" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="15" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
-      <c r="D9" s="14" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr"/>
-      <c r="F9" s="15" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr"/>
+      <c r="D9" s="15" t="inlineStr"/>
+      <c r="E9" s="11" t="inlineStr"/>
+      <c r="F9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr"/>
-      <c r="D10" s="14" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr"/>
-      <c r="F10" s="14" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="15" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="15" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr"/>
-      <c r="F11" s="15" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr"/>
+      <c r="E11" s="11" t="inlineStr"/>
+      <c r="F11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="14" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr"/>
-      <c r="F12" s="14" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="15" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr"/>
-      <c r="D13" s="14" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr"/>
-      <c r="F13" s="14" t="inlineStr"/>
+      <c r="C13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr"/>
+      <c r="E13" s="11" t="inlineStr"/>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr"/>
-      <c r="E14" s="9" t="inlineStr"/>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr"/>
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr"/>
-      <c r="D15" s="14" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr"/>
-      <c r="F15" s="14" t="inlineStr"/>
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
+      <c r="F15" s="15" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr"/>
-      <c r="D16" s="14" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr"/>
-      <c r="F16" s="14" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="15" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
-      <c r="D17" s="14" t="inlineStr"/>
-      <c r="E17" s="9" t="inlineStr"/>
-      <c r="F17" s="14" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr"/>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
+      <c r="C18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr"/>
-      <c r="D19" s="14" t="inlineStr"/>
-      <c r="E19" s="9" t="inlineStr"/>
-      <c r="F19" s="15" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
+      <c r="F19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr"/>
-      <c r="D20" s="14" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr"/>
-      <c r="F20" s="14" t="inlineStr"/>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="15" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr"/>
-      <c r="D21" s="14" t="inlineStr"/>
-      <c r="E21" s="9" t="inlineStr"/>
-      <c r="F21" s="15" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr"/>
-      <c r="D22" s="14" t="inlineStr"/>
-      <c r="E22" s="9" t="inlineStr"/>
-      <c r="F22" s="15" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="15" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr"/>
-      <c r="D23" s="14" t="inlineStr"/>
-      <c r="E23" s="9" t="inlineStr"/>
-      <c r="F23" s="14" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="15" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="15" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
-      <c r="D24" s="14" t="inlineStr"/>
-      <c r="E24" s="9" t="inlineStr"/>
-      <c r="F24" s="15" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="15" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr"/>
-      <c r="E26" s="9" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr"/>
-      <c r="E27" s="9" t="inlineStr"/>
-      <c r="F27" s="15" t="inlineStr">
+      <c r="C27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr"/>
-      <c r="D28" s="14" t="inlineStr"/>
-      <c r="E28" s="9" t="inlineStr"/>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
+      <c r="F28" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr"/>
-      <c r="D29" s="14" t="inlineStr"/>
-      <c r="E29" s="9" t="inlineStr"/>
-      <c r="F29" s="15" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="15" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr"/>
-      <c r="D30" s="14" t="inlineStr"/>
-      <c r="E30" s="9" t="inlineStr"/>
-      <c r="F30" s="14" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="15" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="15" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F31" s="15" t="inlineStr">
+      <c r="C31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr"/>
-      <c r="D32" s="14" t="inlineStr"/>
-      <c r="E32" s="9" t="inlineStr"/>
-      <c r="F32" s="14" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="15" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
-      <c r="D33" s="14" t="inlineStr"/>
-      <c r="E33" s="9" t="inlineStr"/>
-      <c r="F33" s="15" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr"/>
+      <c r="D33" s="15" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
-      <c r="D34" s="14" t="inlineStr"/>
-      <c r="E34" s="9" t="inlineStr"/>
-      <c r="F34" s="15" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="15" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="13" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr"/>
-      <c r="F35" s="15" t="inlineStr">
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr"/>
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
-      <c r="D36" s="14" t="inlineStr"/>
-      <c r="E36" s="9" t="inlineStr"/>
-      <c r="F36" s="15" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr"/>
+      <c r="D36" s="15" t="inlineStr"/>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr"/>
-      <c r="D37" s="14" t="inlineStr"/>
-      <c r="E37" s="9" t="inlineStr"/>
-      <c r="F37" s="14" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="15" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr"/>
+      <c r="F37" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -766,7 +766,11 @@
         </is>
       </c>
       <c r="D11" s="15" t="inlineStr"/>
-      <c r="E11" s="11" t="inlineStr"/>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -696,7 +696,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="11" t="inlineStr"/>
       <c r="F7" s="16" t="inlineStr">
@@ -912,7 +916,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="16" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -664,7 +664,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
+      <c r="C5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr"/>
       <c r="E5" s="11" t="inlineStr"/>
       <c r="F5" s="16" t="inlineStr">
@@ -696,11 +700,7 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="11" t="inlineStr"/>
       <c r="F7" s="16" t="inlineStr">
@@ -732,7 +732,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
+      <c r="C9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D9" s="15" t="inlineStr"/>
       <c r="E9" s="11" t="inlineStr"/>
       <c r="F9" s="16" t="inlineStr">
@@ -916,11 +920,7 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="16" t="inlineStr">
@@ -1006,7 +1006,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="C24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="15" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="16" t="inlineStr">
@@ -1094,7 +1098,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D28" s="15" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="15" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -628,9 +628,21 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="15" t="inlineStr"/>
-      <c r="E3" s="11" t="inlineStr"/>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -700,7 +712,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="11" t="inlineStr"/>
       <c r="F7" s="16" t="inlineStr">
@@ -721,7 +737,11 @@
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
-      <c r="F8" s="15" t="inlineStr"/>
+      <c r="F8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -920,7 +940,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="16" t="inlineStr">
@@ -1141,7 +1165,11 @@
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="15" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
-      <c r="F30" s="15" t="inlineStr"/>
+      <c r="F30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1185,7 +1213,11 @@
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
-      <c r="F32" s="15" t="inlineStr"/>
+      <c r="F32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -980,7 +980,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr"/>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="15" t="inlineStr"/>
       <c r="E21" s="11" t="inlineStr"/>
       <c r="F21" s="16" t="inlineStr">
@@ -1082,7 +1086,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="15" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
       <c r="F26" s="15" t="inlineStr">
@@ -1274,7 +1282,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="11" t="inlineStr"/>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -903,7 +903,11 @@
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
-      <c r="F17" s="15" t="inlineStr"/>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -682,7 +682,11 @@
         </is>
       </c>
       <c r="D5" s="15" t="inlineStr"/>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="E5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -718,7 +722,11 @@
         </is>
       </c>
       <c r="D7" s="15" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="E7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -757,7 +765,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr"/>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="11" t="inlineStr"/>
       <c r="F9" s="16" t="inlineStr">
         <is>
@@ -793,7 +805,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr"/>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1043,8 +1059,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="15" t="inlineStr"/>
-      <c r="E24" s="11" t="inlineStr"/>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1139,7 +1163,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="15" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="15" t="inlineStr">
         <is>
@@ -1240,9 +1268,21 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr"/>
-      <c r="D33" s="15" t="inlineStr"/>
-      <c r="E33" s="11" t="inlineStr"/>
+      <c r="C33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F33" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -721,7 +721,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr"/>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -770,7 +774,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr"/>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -871,7 +879,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr"/>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E14" s="11" t="inlineStr"/>
       <c r="F14" s="15" t="inlineStr">
         <is>
@@ -965,7 +977,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="11" t="inlineStr"/>
       <c r="F19" s="16" t="inlineStr">
         <is>
@@ -1119,8 +1135,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="15" t="inlineStr"/>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -658,8 +658,16 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="11" t="inlineStr"/>
       <c r="F4" s="16" t="inlineStr">
         <is>
@@ -681,7 +689,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr"/>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E5" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -857,8 +869,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D13" s="15" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr"/>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -951,7 +971,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr"/>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1166,7 +1190,11 @@
         </is>
       </c>
       <c r="D27" s="15" t="inlineStr"/>
-      <c r="E27" s="11" t="inlineStr"/>
+      <c r="E27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1324,7 +1352,11 @@
       </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="15" t="inlineStr"/>
-      <c r="E34" s="11" t="inlineStr"/>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1370,8 +1402,16 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="15" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E36" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -668,7 +668,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr"/>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -904,7 +908,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr"/>
+      <c r="E14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1006,7 +1014,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr"/>
+      <c r="E19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1350,7 +1362,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="15" t="inlineStr"/>
       <c r="E34" s="17" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -1057,7 +1057,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D21" s="15" t="inlineStr"/>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E21" s="11" t="inlineStr"/>
       <c r="F21" s="16" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -1236,7 +1236,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr"/>
+      <c r="E28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="15" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -930,8 +930,16 @@
       </c>
       <c r="C15" s="11" t="inlineStr"/>
       <c r="D15" s="15" t="inlineStr"/>
-      <c r="E15" s="11" t="inlineStr"/>
-      <c r="F15" s="15" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -1282,7 +1282,11 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr"/>
+      <c r="C30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D30" s="15" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
       <c r="F30" s="16" t="inlineStr">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -171,13 +171,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -197,13 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -628,7 +628,7 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -638,7 +638,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -658,7 +658,7 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -668,7 +668,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="17" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -688,7 +688,7 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -698,7 +698,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="17" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -719,9 +719,9 @@
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="15" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="15" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -732,7 +732,7 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -742,7 +742,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="17" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="15" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
       <c r="F8" s="16" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -790,7 +790,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -811,9 +811,9 @@
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="15" t="inlineStr"/>
+      <c r="D10" s="17" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
-      <c r="F10" s="15" t="inlineStr"/>
+      <c r="F10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -824,7 +824,7 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -834,7 +834,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -855,9 +855,9 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="15" t="inlineStr"/>
+      <c r="D12" s="17" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
-      <c r="F12" s="15" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -868,7 +868,7 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -878,7 +878,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="17" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -898,7 +898,7 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -908,12 +908,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="15" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -929,8 +929,8 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="15" t="inlineStr"/>
-      <c r="E15" s="17" t="inlineStr">
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -951,9 +951,9 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="15" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
-      <c r="F16" s="15" t="inlineStr"/>
+      <c r="F16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="15" t="inlineStr"/>
+      <c r="D17" s="17" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
       <c r="F17" s="16" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -992,7 +992,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E18" s="17" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1012,7 +1012,7 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1022,7 +1022,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E19" s="17" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="15" t="inlineStr"/>
+      <c r="D20" s="17" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="16" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="15" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="16" t="inlineStr">
         <is>
@@ -1105,9 +1105,9 @@
         </is>
       </c>
       <c r="C23" s="11" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr"/>
+      <c r="D23" s="17" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
-      <c r="F23" s="15" t="inlineStr"/>
+      <c r="F23" s="17" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -1118,7 +1118,7 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1128,7 +1128,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E24" s="17" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1148,7 +1148,7 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1158,7 +1158,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="17" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1178,7 +1178,7 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
+      <c r="C26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1188,12 +1188,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="15" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -1208,13 +1208,13 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="inlineStr"/>
-      <c r="E27" s="17" t="inlineStr">
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1234,7 +1234,7 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1244,12 +1244,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E28" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="15" t="inlineStr">
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr"/>
-      <c r="D29" s="15" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr"/>
       <c r="F29" s="16" t="inlineStr">
         <is>
@@ -1282,12 +1282,12 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="inlineStr"/>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D30" s="17" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
       <c r="F30" s="16" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1314,7 +1314,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="17" t="inlineStr">
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="15" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="16" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr">
+      <c r="C33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1362,7 +1362,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="17" t="inlineStr">
+      <c r="E33" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1382,13 +1382,13 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="inlineStr"/>
-      <c r="E34" s="17" t="inlineStr">
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="17" t="inlineStr"/>
+      <c r="E34" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1408,7 +1408,7 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1418,7 +1418,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="17" t="inlineStr">
+      <c r="E35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1438,7 +1438,7 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="17" t="inlineStr">
+      <c r="C36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1448,7 +1448,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E36" s="17" t="inlineStr">
+      <c r="E36" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1469,9 +1469,17 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr"/>
-      <c r="E37" s="11" t="inlineStr"/>
-      <c r="F37" s="15" t="inlineStr">
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="17" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -966,7 +966,11 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="17" t="inlineStr"/>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -952,7 +952,11 @@
       </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="17" t="inlineStr"/>
-      <c r="E16" s="11" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F16" s="17" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-11 (4 Oktober 2021 - 10 Oktober 2021).xlsx
@@ -968,8 +968,16 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="17" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
           <t>ü</t>
